--- a/readme_files/user-stories.xlsx
+++ b/readme_files/user-stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szilvia/Library/Mobile Documents/com~apple~CloudDocs/CodeInstitute/book-cycle/readme_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C232C32D-77B1-7E48-B799-C20DB67AA071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA750F5-B896-2B4E-ABAC-9B653B451F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{2EF7F801-691E-E849-810A-7091C8B85BE2}"/>
   </bookViews>
@@ -824,10 +824,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F6CFA-F90B-7942-A113-CACD138D84F2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D34" sqref="D34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1450,6 +1453,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>